--- a/data/turm/MCT-3A/MCT-3A_(1)bimestre.xlsx
+++ b/data/turm/MCT-3A/MCT-3A_(1)bimestre.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Emerson-Robótica_(1)bimestre</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>0_(1)bimestre</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Eudes-Microcontroladores_(1)bimestre</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vinicius-CAM_(1)bimestre</t>
+          <t>Emerson-Robótica_(1)bimestre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Eudes-Microcontroladores_(1)bimestre</t>
+          <t>0_(1)bimestre</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,17 +537,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vinicius-CAM_(1)bimestre</t>
+          <t>Emerson-Robótica_(1)bimestre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Laboratório de Máquinas Elétricas, João Paulo-Laboratório de Eletroeletrônica, 0]</t>
+          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0, Pedro Bispo-Laboratório de Máquinas Elétricas, 0]</t>
+          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0_(1)bimestre</t>
+          <t>Nilton-Elementos de Máquinas_(1)bimestre</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0_(1)bimestre</t>
+          <t>Nilton-Elementos de Máquinas_(1)bimestre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Laboratório de Máquinas Elétricas, João Paulo-Laboratório de Eletroeletrônica, 0]</t>
+          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0, Pedro Bispo-Laboratório de Máquinas Elétricas, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pedro Bispo-Automação Industrial_(1)bimestre</t>
+          <t>Eudes-Microcontroladores_(1)bimestre</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0_(1)bimestre</t>
+          <t>Renan-Máquinas Elétricas</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Nilton-Elementos de Máquinas_(1)bimestre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Eudes-Microcontroladores_(1)bimestre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Renan-Máquinas Elétricas</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[0, João Paulo-Laboratório de Eletroeletrônica, 0]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[0, Pedro Bispo-Laboratório de Máquinas Elétricas, João Paulo-Laboratório de Eletroeletrônica]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Pedro Bispo-Automação Industrial_(1)bimestre</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Eudes-Microcontroladores_(1)bimestre</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Renan-Máquinas Elétricas</t>
+          <t>Nilton-Elementos de Máquinas_(1)bimestre</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0, Pedro Bispo-Laboratório de Máquinas Elétricas, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pedro Bispo-Automação Industrial_(1)bimestre</t>
+          <t>Eudes-Microcontroladores_(1)bimestre</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0_(1)bimestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MCT-3A/MCT-3A_(1)bimestre.xlsx
+++ b/data/turm/MCT-3A/MCT-3A_(1)bimestre.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emerson-Robótica_(1)bimestre</t>
+          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Nilton-Elementos de Máquinas_(1)bimestre</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,12 +488,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0_(1)bimestre</t>
+          <t>Pedro Bispo-Automação Industrial_(1)bimestre</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0_(1)bimestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Emerson-Robótica_(1)bimestre</t>
+          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Nilton-Elementos de Máquinas_(1)bimestre</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0_(1)bimestre</t>
+          <t>Pedro Bispo-Automação Industrial_(1)bimestre</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0_(1)bimestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,17 +537,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Emerson-Robótica_(1)bimestre</t>
+          <t>[0, João Paulo-Laboratório de Eletroeletrônica, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Humberto-Eletropneumática_(1)bimestre</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, 0]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nilton-Elementos de Máquinas_(1)bimestre</t>
+          <t>Renan-Máquinas Elétricas</t>
         </is>
       </c>
     </row>
@@ -601,17 +601,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nilton-Elementos de Máquinas_(1)bimestre</t>
+          <t>[0, João Paulo-Laboratório de Eletroeletrônica, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Humberto-Eletropneumática_(1)bimestre</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, 0]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -633,17 +633,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nilton-Elementos de Máquinas_(1)bimestre</t>
+          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Ludoff-Eletrohidráulica_(1)bimestre</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, 0]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Renan-Máquinas Elétricas</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -665,17 +665,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nilton-Elementos de Máquinas_(1)bimestre</t>
+          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Ludoff-Eletrohidráulica_(1)bimestre</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, 0]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/data/turm/MCT-3A/MCT-3A_(1)bimestre.xlsx
+++ b/data/turm/MCT-3A/MCT-3A_(1)bimestre.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Nilton-Elementos de Máquinas_(1)bimestre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nilton-Elementos de Máquinas_(1)bimestre</t>
+          <t>0_(1)bimestre</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, 0]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pedro Bispo-Automação Industrial_(1)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Cláudio-Tecnologia da Soldagem_(1)bimestre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nilton-Elementos de Máquinas_(1)bimestre</t>
+          <t>0_(1)bimestre</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, 0]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pedro Bispo-Automação Industrial_(1)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[0, João Paulo-Laboratório de Eletroeletrônica, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Cláudio-Tecnologia da Soldagem_(1)bimestre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Humberto-Eletropneumática_(1)bimestre</t>
+          <t>Carlos-Processos de Usinagem 1_(1)bimestre</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Eudes-Microcontroladores_(1)bimestre</t>
+          <t>[0, Pedro Bispo-Laboratório de Máquinas Elétricas, 0]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[0, João Paulo-Laboratório de Eletroeletrônica, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Cláudio-Tecnologia da Soldagem_(1)bimestre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Humberto-Eletropneumática_(1)bimestre</t>
+          <t>Carlos-Processos de Usinagem 1_(1)bimestre</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Eudes-Microcontroladores_(1)bimestre</t>
+          <t>[0, Pedro Bispo-Laboratório de Máquinas Elétricas, 0]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Cláudio-Tecnologia da Soldagem_(1)bimestre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ludoff-Eletrohidráulica_(1)bimestre</t>
+          <t>Vinicius-CAM_(1)bimestre</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, 0]</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Eudes-Microcontroladores_(1)bimestre</t>
+          <t>[0, Pedro Bispo-Laboratório de Máquinas Elétricas, 0]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Emerson-Robótica_(1)bimestre</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Carlos-Processos de Usinagem 1_(1)bimestre</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ludoff-Eletrohidráulica_(1)bimestre</t>
+          <t>Vinicius-CAM_(1)bimestre</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, 0]</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Eudes-Microcontroladores_(1)bimestre</t>
+          <t>[0, Pedro Bispo-Laboratório de Máquinas Elétricas, 0]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
